--- a/tabelas/produto.xlsx
+++ b/tabelas/produto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COM\Human_Resources\01.Engineering_Tech_School\02.Internal\10 - Aprendizes\5 - Desenvolvimento de Sistemas\1 - Alunos\Thiago N. Pedron\Banco de Dados\repositorio\BANCO_DE_DADOS\tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B838A9AC-B4EE-47B0-96ED-67F3B1113681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,57 +26,6 @@
         <sz val="11.5"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t xml:space="preserve">Unidade do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>produto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Descrição do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>produto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Valor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>unitário</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t>Kg</t>
     </r>
   </si>
@@ -343,13 +291,22 @@
     </r>
   </si>
   <si>
-    <t>Código do produto</t>
+    <t>id_produto</t>
+  </si>
+  <si>
+    <t>unidade_produto</t>
+  </si>
+  <si>
+    <t>desc_produto</t>
+  </si>
+  <si>
+    <t>val_uni_produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,10 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -731,18 +690,18 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,13 +709,13 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +723,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,13 +737,13 @@
         <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,13 +751,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,13 +765,13 @@
         <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,13 +779,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,13 +807,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,13 +821,13 @@
         <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,13 +835,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
